--- a/Docs/PackageModule/Report.xlsx
+++ b/Docs/PackageModule/Report.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TaskList" sheetId="1" r:id="rId1"/>
+    <sheet name="Currency" sheetId="2" r:id="rId2"/>
+    <sheet name="French_Localization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="280">
   <si>
     <t>Project Name</t>
   </si>
@@ -73,13 +73,796 @@
   </si>
   <si>
     <t>Low Priority</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>TIX-CP001</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Add Package Age group</t>
+  </si>
+  <si>
+    <t>1 Days</t>
+  </si>
+  <si>
+    <t>TIX-AP002</t>
+  </si>
+  <si>
+    <t>Only Adult Package</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>TIX-OA003</t>
+  </si>
+  <si>
+    <t>Company Details Page</t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>TIX-CD004</t>
+  </si>
+  <si>
+    <t>Company Currency Management</t>
+  </si>
+  <si>
+    <t>3 Days</t>
+  </si>
+  <si>
+    <t>TIX-CC005</t>
+  </si>
+  <si>
+    <t>CurrencyTo</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>USDCA</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CurrencyConvertor</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CompanyID</t>
+  </si>
+  <si>
+    <t>ResourceID</t>
+  </si>
+  <si>
+    <t>PageID</t>
+  </si>
+  <si>
+    <t>ResourceValue</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>errorSelectApplication</t>
+  </si>
+  <si>
+    <t>Please Select Application Name First.</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>AddLocalizationKey</t>
+  </si>
+  <si>
+    <t>Add Localization</t>
+  </si>
+  <si>
+    <t>AddLocalizationForAvailableResources</t>
+  </si>
+  <si>
+    <t>Add localization for available resources</t>
+  </si>
+  <si>
+    <t>SelectApplicationKey</t>
+  </si>
+  <si>
+    <t>Select Application</t>
+  </si>
+  <si>
+    <t>ApplicationNameKey</t>
+  </si>
+  <si>
+    <t>Application Name</t>
+  </si>
+  <si>
+    <t>SelectResourcePageKey</t>
+  </si>
+  <si>
+    <t>Select Resource Page</t>
+  </si>
+  <si>
+    <t>ResourcePageKey</t>
+  </si>
+  <si>
+    <t>Resource Page</t>
+  </si>
+  <si>
+    <t>NextStepKey</t>
+  </si>
+  <si>
+    <t>Next Step</t>
+  </si>
+  <si>
+    <t>SelectCultureLanguageKey</t>
+  </si>
+  <si>
+    <t>Select Culture Language</t>
+  </si>
+  <si>
+    <t>LanguageKey</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>AddNewResources</t>
+  </si>
+  <si>
+    <t>Add New Resource</t>
+  </si>
+  <si>
+    <t>EnterResourceKey</t>
+  </si>
+  <si>
+    <t>Enter Resource Key</t>
+  </si>
+  <si>
+    <t>EnterResourceValue</t>
+  </si>
+  <si>
+    <t>Enter Resource Value</t>
+  </si>
+  <si>
+    <t>SubmitResource</t>
+  </si>
+  <si>
+    <t>Add Resource</t>
+  </si>
+  <si>
+    <t>Veuillez d'abord sélectionner le nom de l'application.</t>
+  </si>
+  <si>
+    <t>fr-FR</t>
+  </si>
+  <si>
+    <t>sD</t>
+  </si>
+  <si>
+    <t>Sélectionner une application</t>
+  </si>
+  <si>
+    <t>L'étape suivante</t>
+  </si>
+  <si>
+    <t>Ajouter la localisation pour les ressources disponibles</t>
+  </si>
+  <si>
+    <t>Ajouter une ressource</t>
+  </si>
+  <si>
+    <t>Nom de l'application</t>
+  </si>
+  <si>
+    <t>Sélectionner la page de ressources</t>
+  </si>
+  <si>
+    <t>Page de ressources</t>
+  </si>
+  <si>
+    <t>Sélectionnez la langue de la culture</t>
+  </si>
+  <si>
+    <t>La langue</t>
+  </si>
+  <si>
+    <t>Ajouter une nouvelle ressource</t>
+  </si>
+  <si>
+    <t>Entrer la clé de ressource</t>
+  </si>
+  <si>
+    <t>Entrer la valeur de ressource</t>
+  </si>
+  <si>
+    <t>RecordExistKey</t>
+  </si>
+  <si>
+    <t>Resource inserted successfully.</t>
+  </si>
+  <si>
+    <t>Ressource insérée avec succès.</t>
+  </si>
+  <si>
+    <t>RecordAlreadyExist</t>
+  </si>
+  <si>
+    <t>Resource already exist for this resource key and selected culture.</t>
+  </si>
+  <si>
+    <t>Une ressource existe déjà pour cette clé de ressource et cette culture sélectionnée.</t>
+  </si>
+  <si>
+    <t>Please Select these detail.</t>
+  </si>
+  <si>
+    <t>UpdateAgentProfileKey</t>
+  </si>
+  <si>
+    <t>Update Agent Profile</t>
+  </si>
+  <si>
+    <t>Mettre à jour le profil</t>
+  </si>
+  <si>
+    <t>UpdatedAgentProfileMessageKey</t>
+  </si>
+  <si>
+    <t>Your profile has been udated successfully.Some Changes might reflect with login reattempt.</t>
+  </si>
+  <si>
+    <t>Votre profil a été mis à jour avec succès.Certains changements peuvent refléter avec le login reattempt.</t>
+  </si>
+  <si>
+    <t>AgentProfileKey</t>
+  </si>
+  <si>
+    <t>Profil de l'agent</t>
+  </si>
+  <si>
+    <t>Agent Profile</t>
+  </si>
+  <si>
+    <t>AgentIDKey</t>
+  </si>
+  <si>
+    <t>ID de l'agent</t>
+  </si>
+  <si>
+    <t>Agent Id</t>
+  </si>
+  <si>
+    <t>FirstNameKey</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>SelectedCultureKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are adding </t>
+  </si>
+  <si>
+    <t>Vous ajoutez</t>
+  </si>
+  <si>
+    <t>CultureResourceKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  culture resources.</t>
+  </si>
+  <si>
+    <t>ressources culturelles</t>
+  </si>
+  <si>
+    <t>errorSelectPageNameKey</t>
+  </si>
+  <si>
+    <t>Please select page name for which you want to add resources.</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le nom de la page pour laquelle vous souhaitez ajouter des ressources.</t>
+  </si>
+  <si>
+    <t>errorSelectLanguageKey</t>
+  </si>
+  <si>
+    <t>Please select language culture field.</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner un champ de culture linguistique.</t>
+  </si>
+  <si>
+    <t>errorSelectResourceIDKey</t>
+  </si>
+  <si>
+    <t>S'il vous plaît remplir le champ id de la ressource.</t>
+  </si>
+  <si>
+    <t>Please fill resource id field.</t>
+  </si>
+  <si>
+    <t>errorSelectResourceValueKey</t>
+  </si>
+  <si>
+    <t>Please fill resource value field.</t>
+  </si>
+  <si>
+    <t>Veuillez remplir le champ de valeur de ressource.</t>
+  </si>
+  <si>
+    <t>SaveNextKey</t>
+  </si>
+  <si>
+    <t>Save &amp; Next</t>
+  </si>
+  <si>
+    <t>Enregistrer et Suivant</t>
+  </si>
+  <si>
+    <t>AddRemovePackageImagesKey</t>
+  </si>
+  <si>
+    <t>Ajouter/supprimer des images de package</t>
+  </si>
+  <si>
+    <t>Add/Remove Package Images</t>
+  </si>
+  <si>
+    <t>ImageNameKey</t>
+  </si>
+  <si>
+    <t>Nom de l'image</t>
+  </si>
+  <si>
+    <t>Image Name</t>
+  </si>
+  <si>
+    <t>ImageTitleKey</t>
+  </si>
+  <si>
+    <t>Image Title</t>
+  </si>
+  <si>
+    <t>Titre de l'image</t>
+  </si>
+  <si>
+    <t>AttachmentsKey</t>
+  </si>
+  <si>
+    <t>Attachment (s)</t>
+  </si>
+  <si>
+    <t>Attachment(s)</t>
+  </si>
+  <si>
+    <t>UptoTwoMBKey</t>
+  </si>
+  <si>
+    <t>up to 2 MB</t>
+  </si>
+  <si>
+    <t>jusqu'à 2 Mo</t>
+  </si>
+  <si>
+    <t>AddImageKey</t>
+  </si>
+  <si>
+    <t>Ajouter une image</t>
+  </si>
+  <si>
+    <t>Add Image</t>
+  </si>
+  <si>
+    <t>RemoveImageKey</t>
+  </si>
+  <si>
+    <t>Supprimer l'image</t>
+  </si>
+  <si>
+    <t>Remove Image</t>
+  </si>
+  <si>
+    <t>AllAttachmentsKey</t>
+  </si>
+  <si>
+    <t>All attachments</t>
+  </si>
+  <si>
+    <t>Toutes les pièces jointes</t>
+  </si>
+  <si>
+    <t>AddPackageCostingKey</t>
+  </si>
+  <si>
+    <t>Add Package Costing</t>
+  </si>
+  <si>
+    <t>Ajouter le coût du package</t>
+  </si>
+  <si>
+    <t>FirstNameValidationKey</t>
+  </si>
+  <si>
+    <t>Veuillez remplir le champ du prénom.</t>
+  </si>
+  <si>
+    <t>Please fill first name field.</t>
+  </si>
+  <si>
+    <t>LastNameKey</t>
+  </si>
+  <si>
+    <t>Nom de famille</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>LastNameValidationKey</t>
+  </si>
+  <si>
+    <t>Veuillez remplir le champ du nom de famille.</t>
+  </si>
+  <si>
+    <t>Please fill last name field.</t>
+  </si>
+  <si>
+    <t>EmailKey</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EmailValidationKey</t>
+  </si>
+  <si>
+    <t>S'il vous plaît remplir le champ email.</t>
+  </si>
+  <si>
+    <t>Please fill email field.</t>
+  </si>
+  <si>
+    <t>PhoneKey</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>PhoneValidationKey</t>
+  </si>
+  <si>
+    <t>S'il vous plaît remplir le champ de téléphone.</t>
+  </si>
+  <si>
+    <t>Please fill phone field.</t>
+  </si>
+  <si>
+    <t>DashBoardLanguageKey</t>
+  </si>
+  <si>
+    <t>DashBoard Language</t>
+  </si>
+  <si>
+    <t>DashBoardLanguageValidationKey</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner votre langue par défaut</t>
+  </si>
+  <si>
+    <t>Please select your default language.</t>
+  </si>
+  <si>
+    <t>DefaultPageKey</t>
+  </si>
+  <si>
+    <t>Page par défaut</t>
+  </si>
+  <si>
+    <t>Default Page</t>
+  </si>
+  <si>
+    <t>DefaultPageValidationKey</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner la page d'accueil par défaut. Entrez N / A si vous ne voulez pas sélectionner.</t>
+  </si>
+  <si>
+    <t>Please select default home page.Enter N/A if you do not want to select.</t>
+  </si>
+  <si>
+    <t>AddressKey</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AddressValidationKey</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le champ d'adresse.</t>
+  </si>
+  <si>
+    <t>Please select address field.</t>
+  </si>
+  <si>
+    <t>CountryKey</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>CountryValidationKey</t>
+  </si>
+  <si>
+    <t>S'il vous plaît sélectionnez votre pays.</t>
+  </si>
+  <si>
+    <t>Please select your country.</t>
+  </si>
+  <si>
+    <t>UpdateKey</t>
+  </si>
+  <si>
+    <t>Mettre à jour</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>CreateNewPackageKey</t>
+  </si>
+  <si>
+    <t>Create New Package</t>
+  </si>
+  <si>
+    <t>Créer un nouveau package</t>
+  </si>
+  <si>
+    <t>AddBasicPackageDetailKey</t>
+  </si>
+  <si>
+    <t>Ajouter les détails du package de base</t>
+  </si>
+  <si>
+    <t>Add Basic Package Details</t>
+  </si>
+  <si>
+    <t>BasicPackageDetailKey</t>
+  </si>
+  <si>
+    <t>Détails du forfait de base</t>
+  </si>
+  <si>
+    <t>Basic Package Details</t>
+  </si>
+  <si>
+    <t>PackageCodeKey</t>
+  </si>
+  <si>
+    <t>Code de l'emballage</t>
+  </si>
+  <si>
+    <t>Package Code</t>
+  </si>
+  <si>
+    <t>PackageNameKey</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
+    <t>Nom du paquet</t>
+  </si>
+  <si>
+    <t>PackageTitleKey</t>
+  </si>
+  <si>
+    <t>Titre du paquet</t>
+  </si>
+  <si>
+    <t>Package Title</t>
+  </si>
+  <si>
+    <t>BasicPackageCreteriaKey</t>
+  </si>
+  <si>
+    <t>Critères de base de l'emballage</t>
+  </si>
+  <si>
+    <t>Basic Package Criteria</t>
+  </si>
+  <si>
+    <t>PackageMarketKey</t>
+  </si>
+  <si>
+    <t>Marché des paquets</t>
+  </si>
+  <si>
+    <t>Package Market</t>
+  </si>
+  <si>
+    <t>SelectKey</t>
+  </si>
+  <si>
+    <t>Sélectionner</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>DomesticKey</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>InternationalKey</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>PackageSaleMarketKey</t>
+  </si>
+  <si>
+    <t>Marché de vente de paquets</t>
+  </si>
+  <si>
+    <t>Package Sale Market</t>
+  </si>
+  <si>
+    <t>PackageValidityStartDateKey</t>
+  </si>
+  <si>
+    <t>Package Validity Start Date</t>
+  </si>
+  <si>
+    <t>Validité du package Date de début</t>
+  </si>
+  <si>
+    <t>PackageValidityEndDateKey</t>
+  </si>
+  <si>
+    <t>Date de fin de validité du package</t>
+  </si>
+  <si>
+    <t>Package Validity End Date</t>
+  </si>
+  <si>
+    <t>PackageBookingStartDateKey</t>
+  </si>
+  <si>
+    <t>Date de début de réservation de package</t>
+  </si>
+  <si>
+    <t>Package Booking Start Date</t>
+  </si>
+  <si>
+    <t>PackageBookingEndDateKey</t>
+  </si>
+  <si>
+    <t>Package Booking End Date</t>
+  </si>
+  <si>
+    <t>Date de fin de réservation de package</t>
+  </si>
+  <si>
+    <t>PackageDurationKey</t>
+  </si>
+  <si>
+    <t>Durée du paquet (* en jours)</t>
+  </si>
+  <si>
+    <t>Package Duration(*In Days)</t>
+  </si>
+  <si>
+    <t>ChildMinAgeKey</t>
+  </si>
+  <si>
+    <t>Child Min Age</t>
+  </si>
+  <si>
+    <t>Enfant Min Age</t>
+  </si>
+  <si>
+    <t>ChildMaxAgeKey</t>
+  </si>
+  <si>
+    <t>Child Max Age</t>
+  </si>
+  <si>
+    <t>Enfant Max Age</t>
+  </si>
+  <si>
+    <t>PackageLastPaymentDueKey</t>
+  </si>
+  <si>
+    <t>Paquet dernier paiement dû</t>
+  </si>
+  <si>
+    <t>Package Last Payment Due</t>
+  </si>
+  <si>
+    <t>PackagePaymentCutOffKey</t>
+  </si>
+  <si>
+    <t>Paquet Paiement CutOff Day</t>
+  </si>
+  <si>
+    <t>Package Payment CutOff Day</t>
+  </si>
+  <si>
+    <t>DiscountOnFullPaymentKey</t>
+  </si>
+  <si>
+    <t>Remise sur le paiement intégral (% en cas de pourcentage)</t>
+  </si>
+  <si>
+    <t>Discount on Full Payment(% in case of percentage)</t>
+  </si>
+  <si>
+    <t>PreviousStepKey</t>
+  </si>
+  <si>
+    <t>Étape précédente</t>
+  </si>
+  <si>
+    <t>Previous Step</t>
+  </si>
+  <si>
+    <t>addpackagecancellationpolicyKey</t>
+  </si>
+  <si>
+    <t>Add Cancellation Policy</t>
+  </si>
+  <si>
+    <t>Ajouter une politique d'annulation de package</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +877,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="29"/>
+      <color rgb="FF015B9D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,15 +910,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,9 +1235,11 @@
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +1264,11 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -482,10 +1288,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -496,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -507,12 +1316,106 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -523,24 +1426,3312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.5650000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.747E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3">
+        <v>63.903700000000001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.6724999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17.4038</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.27229399999999998</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://xe.com/currencycharts/?from=INR&amp;to=USD"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://xe.com/currencycharts/?from=USD&amp;to=INR"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>165</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>51</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>53</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>57</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>60</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>63</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>66</v>
+      </c>
+      <c r="B95" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>68</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>69</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>70</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>71</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>72</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>73</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>74</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>76</v>
+      </c>
+      <c r="B105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>205</v>
+      </c>
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>78</v>
+      </c>
+      <c r="B107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>207</v>
+      </c>
+      <c r="F107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>79</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>80</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>81</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>211</v>
+      </c>
+      <c r="F110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>82</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>84</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>85</v>
+      </c>
+      <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>217</v>
+      </c>
+      <c r="F114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>86</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>219</v>
+      </c>
+      <c r="F115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>87</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>88</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>221</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>89</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>221</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F118" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>90</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>91</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>92</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" t="s">
+        <v>224</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>225</v>
+      </c>
+      <c r="F121" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>93</v>
+      </c>
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>94</v>
+      </c>
+      <c r="B123" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>82</v>
+      </c>
+      <c r="F123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>95</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>96</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>227</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>228</v>
+      </c>
+      <c r="F125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>97</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" t="s">
+        <v>227</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>229</v>
+      </c>
+      <c r="F126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>98</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>231</v>
+      </c>
+      <c r="F127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>232</v>
+      </c>
+      <c r="F128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>100</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>233</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>234</v>
+      </c>
+      <c r="F129" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>101</v>
+      </c>
+      <c r="B130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>235</v>
+      </c>
+      <c r="F130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>102</v>
+      </c>
+      <c r="B131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>237</v>
+      </c>
+      <c r="F131" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>103</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>238</v>
+      </c>
+      <c r="F132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>104</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>239</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>240</v>
+      </c>
+      <c r="F133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>105</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>240</v>
+      </c>
+      <c r="F134" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>106</v>
+      </c>
+      <c r="B135" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" t="s">
+        <v>241</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>242</v>
+      </c>
+      <c r="F135" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>107</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>243</v>
+      </c>
+      <c r="F136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>108</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" t="s">
+        <v>244</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>245</v>
+      </c>
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>109</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" t="s">
+        <v>244</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>246</v>
+      </c>
+      <c r="F138" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>110</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>247</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
+        <v>248</v>
+      </c>
+      <c r="F139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>111</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>247</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>249</v>
+      </c>
+      <c r="F140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>112</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>251</v>
+      </c>
+      <c r="F141" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>113</v>
+      </c>
+      <c r="B142" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" t="s">
+        <v>250</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>252</v>
+      </c>
+      <c r="F142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>114</v>
+      </c>
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" t="s">
+        <v>253</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>115</v>
+      </c>
+      <c r="B144" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" t="s">
+        <v>253</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>255</v>
+      </c>
+      <c r="F144" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>116</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>117</v>
+      </c>
+      <c r="B146" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>258</v>
+      </c>
+      <c r="F146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>118</v>
+      </c>
+      <c r="B147" t="s">
+        <v>69</v>
+      </c>
+      <c r="C147" t="s">
+        <v>259</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>260</v>
+      </c>
+      <c r="F147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>119</v>
+      </c>
+      <c r="B148" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148" t="s">
+        <v>259</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>261</v>
+      </c>
+      <c r="F148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>120</v>
+      </c>
+      <c r="B149" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" t="s">
+        <v>262</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>263</v>
+      </c>
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>121</v>
+      </c>
+      <c r="B150" t="s">
+        <v>69</v>
+      </c>
+      <c r="C150" t="s">
+        <v>262</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>264</v>
+      </c>
+      <c r="F150" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>122</v>
+      </c>
+      <c r="B151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" t="s">
+        <v>265</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>266</v>
+      </c>
+      <c r="F151" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>123</v>
+      </c>
+      <c r="B152" t="s">
+        <v>69</v>
+      </c>
+      <c r="C152" t="s">
+        <v>265</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>267</v>
+      </c>
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>124</v>
+      </c>
+      <c r="B153" t="s">
+        <v>69</v>
+      </c>
+      <c r="C153" t="s">
+        <v>268</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>269</v>
+      </c>
+      <c r="F153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>125</v>
+      </c>
+      <c r="B154" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" t="s">
+        <v>268</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>270</v>
+      </c>
+      <c r="F154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>126</v>
+      </c>
+      <c r="B155" t="s">
+        <v>69</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>272</v>
+      </c>
+      <c r="F155" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>127</v>
+      </c>
+      <c r="B156" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" t="s">
+        <v>271</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>273</v>
+      </c>
+      <c r="F156" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>128</v>
+      </c>
+      <c r="B157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" t="s">
+        <v>274</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>275</v>
+      </c>
+      <c r="F157" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>129</v>
+      </c>
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" t="s">
+        <v>274</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>276</v>
+      </c>
+      <c r="F158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" t="s">
+        <v>277</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F159" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" t="s">
+        <v>277</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>279</v>
+      </c>
+      <c r="F160" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>